--- a/Data/Real.Model v.1.3.xlsx
+++ b/Data/Real.Model v.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tor2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312AFD67-BD96-4C26-9D91-8D07A1B6ADA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592EAEB6-2DF0-4685-B2D1-A0E7F1E9528D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C6EFD3A4-A7B5-475D-8F42-E10B52230622}"/>
   </bookViews>
@@ -40068,10 +40068,10 @@
   <dimension ref="A1:EG78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CD30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CL42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
+      <selection pane="bottomRight" activeCell="DA68" sqref="DA68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43495,7 +43495,7 @@
         <v>35480104.62179473</v>
       </c>
       <c r="EA10" s="8">
-        <f t="shared" ref="EA10:FF10" si="21">EA9*$DA$60</f>
+        <f t="shared" ref="EA10:EG10" si="21">EA9*$DA$60</f>
         <v>35504928.259387314</v>
       </c>
       <c r="EB10" s="8">
@@ -43912,7 +43912,7 @@
         <v>177400.52310897366</v>
       </c>
       <c r="EA11" s="3">
-        <f t="shared" ref="EA11:FF11" si="25">EA10/$DA$71</f>
+        <f t="shared" ref="EA11:EG11" si="25">EA10/$DA$71</f>
         <v>177524.64129693658</v>
       </c>
       <c r="EB11" s="3">
@@ -47940,7 +47940,7 @@
         <v>7540.7904506548239</v>
       </c>
       <c r="DI27" s="11">
-        <f t="shared" ref="DI27:EN27" si="56">EXP(LN(CX11)*$DA$77+$DC$77)</f>
+        <f t="shared" ref="DI27:EG27" si="56">EXP(LN(CX11)*$DA$77+$DC$77)</f>
         <v>7592.0065090235075</v>
       </c>
       <c r="DJ27" s="11">
@@ -48301,7 +48301,7 @@
         <v>43.668173671403807</v>
       </c>
       <c r="DL28" s="11">
-        <f t="shared" ref="DL28:EQ28" si="59">EXP(LN(DA13)*$DA$77+$DC$77)</f>
+        <f t="shared" ref="DL28:EG28" si="59">EXP(LN(DA13)*$DA$77+$DC$77)</f>
         <v>40.739566809898292</v>
       </c>
       <c r="DM28" s="11">
@@ -48999,7 +48999,7 @@
         <v>44.074193983562488</v>
       </c>
       <c r="DL30" s="11">
-        <f t="shared" ref="DL30:EQ30" si="65">EXP(LN(DA15)*$DA$77+$DC$77)</f>
+        <f t="shared" ref="DL30:EG30" si="65">EXP(LN(DA15)*$DA$77+$DC$77)</f>
         <v>41.609725307674552</v>
       </c>
       <c r="DM30" s="11">
@@ -49220,7 +49220,7 @@
         <v>274.83732281401399</v>
       </c>
       <c r="CF31" s="35">
-        <f t="shared" ref="CF31:DK31" si="67">EXP(LN(BU5)*$DA$77+$DC$77)</f>
+        <f t="shared" ref="CF31:DJ31" si="67">EXP(LN(BU5)*$DA$77+$DC$77)</f>
         <v>324.19548585714819</v>
       </c>
       <c r="CG31" s="35">
@@ -54429,7 +54429,7 @@
         <v>9086.1329843518943</v>
       </c>
       <c r="EA51" s="3">
-        <f t="shared" ref="EA51:FF51" si="154">EA50*$DA$60/$DA$71</f>
+        <f t="shared" ref="EA51:EG51" si="154">EA50*$DA$60/$DA$71</f>
         <v>8718.2178573461533</v>
       </c>
       <c r="EB51" s="3">
@@ -55352,7 +55352,7 @@
     </row>
     <row r="67" spans="104:110" x14ac:dyDescent="0.25">
       <c r="CZ67" s="24">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="DA67" s="25">
         <v>2.06</v>
@@ -55374,7 +55374,7 @@
     </row>
     <row r="68" spans="104:110" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="CZ68" s="28">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="DA68" s="29">
         <v>1.78</v>

--- a/Data/Real.Model v.1.3.xlsx
+++ b/Data/Real.Model v.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tor2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592EAEB6-2DF0-4685-B2D1-A0E7F1E9528D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B307615C-C7B7-437C-9491-F56D5AFBDC4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C6EFD3A4-A7B5-475D-8F42-E10B52230622}"/>
   </bookViews>
@@ -4296,7 +4296,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>P-Infected</a:t>
+                  <a:t>P-Cases-</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Uncorrected</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -40068,10 +40076,10 @@
   <dimension ref="A1:EG78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CL42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BZ57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DA68" sqref="DA68"/>
+      <selection pane="bottomRight" activeCell="CA72" sqref="CA72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
